--- a/Data Source/Project.xlsx
+++ b/Data Source/Project.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{92BE8F0C-6674-462E-9DBF-1A29D93EBF18}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A4180B7C-5DE0-461A-BDF9-654D7AA6A7E3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Juniper Nursing Home</t>
+    <t>project</t>
   </si>
   <si>
-    <t>project</t>
+    <t>Juniper Nursing Home 1</t>
+  </si>
+  <si>
+    <t>Juniper Nursing Home 2</t>
+  </si>
+  <si>
+    <t>Juniper Nursing Home 3</t>
   </si>
 </sst>
 </file>
@@ -349,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,7 +368,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -373,7 +379,23 @@
         <v>1345006</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1345007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1345008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data Source/Project.xlsx
+++ b/Data Source/Project.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A4180B7C-5DE0-461A-BDF9-654D7AA6A7E3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{69BDC18B-E9E2-48E0-9B76-0D98DF1ED9F0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>Juniper Nursing Home 3</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>Line of Business</t>
+  </si>
+  <si>
+    <t>Construction</t>
   </si>
 </sst>
 </file>
@@ -355,47 +376,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1345006</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1345007</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1345008</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
